--- a/experiment/results.xlsx
+++ b/experiment/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Diplome_work\Diplome2021\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1C861-2B45-4123-9BDF-1C6EF928E52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE4351E-C557-4F2E-BD46-14D6FD203B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент 1" sheetId="1" r:id="rId1"/>
@@ -11865,10 +11865,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.0195092459280927E-2"/>
+          <c:x val="4.9199168930831497E-2"/>
           <c:y val="9.0760436627206412E-2"/>
-          <c:w val="0.95342481924050615"/>
-          <c:h val="0.86207474200482204"/>
+          <c:w val="0.9444207427689556"/>
+          <c:h val="0.81728450683219389"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -12857,6 +12857,88 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="3600">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="3600" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> ключевых слов</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="3600">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755935936"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="755935936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="4000"/>
+                  <a:t>Эксперимент</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12873,39 +12955,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755935936"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="755935936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
+              <a:defRPr sz="2000" b="0" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -12929,14 +12979,66 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4000" b="0" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4000" b="0" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4000" b="0" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4000" b="0" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79944230558240337"/>
-          <c:y val="6.9437431446007572E-2"/>
-          <c:w val="0.17907982592355154"/>
-          <c:h val="0.22387155576074591"/>
+          <c:x val="0.33516961251807681"/>
+          <c:y val="2.0963586250285677E-2"/>
+          <c:w val="0.34171595719093378"/>
+          <c:h val="0.25214796545825041"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -13639,7 +13741,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="32066723" y="1236997"/>
-    <xdr:ext cx="22567556" cy="12575854"/>
+    <xdr:ext cx="22567556" cy="12873610"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -13996,7 +14098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -14790,8 +14892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN24" sqref="AN24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36" customHeight="1"/>
